--- a/Coldairarrow.Api/wwwroot/Upload/templates/fraction_upload_template.xlsx
+++ b/Coldairarrow.Api/wwwroot/Upload/templates/fraction_upload_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="试题" sheetId="1" r:id="rId1"/>
@@ -116,12 +116,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,15 +130,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,22 +155,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,21 +169,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +206,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -212,6 +250,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -219,69 +266,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,19 +289,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +367,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,13 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,133 +451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,36 +474,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -538,17 +495,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,22 +560,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,148 +579,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1170,8 +1157,8 @@
   <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Coldairarrow.Api/wwwroot/Upload/templates/fraction_upload_template.xlsx
+++ b/Coldairarrow.Api/wwwroot/Upload/templates/fraction_upload_template.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="试题" sheetId="1" r:id="rId1"/>
     <sheet name="类型" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+  <si>
+    <t>科目名称</t>
+  </si>
   <si>
     <t>章节名称</t>
   </si>
@@ -51,52 +57,58 @@
     <t>答案解析</t>
   </si>
   <si>
+    <t>初级会计实务</t>
+  </si>
+  <si>
+    <t>会计概念、职能和目标</t>
+  </si>
+  <si>
+    <t>判断题</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>判断题</t>
+    <t>单选题</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>单选题</t>
+    <t>多选题</t>
+  </si>
+  <si>
+    <t>B,C</t>
+  </si>
+  <si>
+    <t>不定项父题</t>
+  </si>
+  <si>
+    <t>不定项子题</t>
+  </si>
+  <si>
+    <t>A,B,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>多选题</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>不定项父题</t>
-  </si>
-  <si>
     <t>A,B</t>
   </si>
   <si>
-    <t>不定项子题</t>
-  </si>
-  <si>
     <t>A,C</t>
   </si>
   <si>
     <t>A,D</t>
   </si>
   <si>
-    <t>B,C</t>
-  </si>
-  <si>
     <t>B,D</t>
   </si>
   <si>
     <t>C,D</t>
-  </si>
-  <si>
-    <t>A,B,C</t>
   </si>
   <si>
     <t>A,B,D</t>
@@ -117,17 +129,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -139,22 +157,66 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,12 +231,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,82 +253,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -289,37 +307,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,13 +433,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,115 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,26 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,17 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,17 +569,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,137 +612,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +750,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -793,6 +814,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="试题"/>
+      <sheetName val="类型"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,27 +1120,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1136,13 +1175,195 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 G2:G6">
+      <formula1>[1]类型!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D1048576">
       <formula1>类型!$B$1:$B$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1048576">
       <formula1>类型!$A$1:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -1157,7 +1378,7 @@
   <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1168,10 +1389,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1184,10 +1405,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1200,10 +1421,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1216,10 +1437,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1232,10 +1453,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1248,7 +1469,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1262,7 +1483,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1276,7 +1497,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1290,7 +1511,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1304,7 +1525,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1318,27 +1539,27 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
